--- a/Hospitais/extraidos/hospitais_agosto.xlsx
+++ b/Hospitais/extraidos/hospitais_agosto.xlsx
@@ -28,6 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -40,9 +49,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -202,12 +199,18 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>1.69%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
     <t>3.81%</t>
   </si>
   <si>
-    <t>1.69%</t>
-  </si>
-  <si>
     <t>4.66%</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>0.85%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
   </si>
   <si>
     <t>3.39%</t>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +630,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -649,11 +646,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -664,13 +658,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -681,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -701,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -715,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -732,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -749,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -766,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -783,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -803,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -817,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -834,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>70</v>
@@ -854,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -868,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -885,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -902,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -919,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -936,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -953,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -970,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -987,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1004,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1021,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1038,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1055,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1072,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1089,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1106,13 +1097,30 @@
         <v>32</v>
       </c>
       <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>70</v>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
